--- a/UnitTests/Tests/Swap.xlsx
+++ b/UnitTests/Tests/Swap.xlsx
@@ -486,7 +486,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f t="shared" ref="D3:D9" si="0">IF(B3=C3,"PASS","FAIL")</f>
+        <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
       <c r="E3" t="str">
@@ -509,7 +509,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:D9" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
       <c r="E4" t="str">
@@ -534,7 +534,7 @@
       </c>
       <c r="G5" t="str">
         <f>_xll.qlLeg(,K6:K8,J6:J8)</f>
-        <v>obj_00009#0000</v>
+        <v>obj_000c0#0000</v>
       </c>
       <c r="J5">
         <f>_xll.qlSettingsEvaluationDate()</f>
@@ -564,7 +564,7 @@
       </c>
       <c r="G6" t="str">
         <f>_xll.qlLeg(,L6:L8,J6:J8)</f>
-        <v>obj_00006#0000</v>
+        <v>obj_000bb#0000</v>
       </c>
       <c r="J6">
         <f>J5+1</f>
@@ -594,7 +594,7 @@
       </c>
       <c r="G7" t="str">
         <f>_xll.qlFlatForward(,2,"target",5,"actual/360","continuous","annual")</f>
-        <v>obj_00004#0000</v>
+        <v>obj_000b9#0000</v>
       </c>
       <c r="J7">
         <f t="shared" ref="J7:J8" si="1">J6+1</f>
@@ -624,7 +624,7 @@
       </c>
       <c r="G8" t="str">
         <f>_xll.qlEuribor(,"6M",G7)</f>
-        <v>obj_00007#0000</v>
+        <v>obj_000bf#0000</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
@@ -654,43 +654,43 @@
       </c>
       <c r="G9" t="str">
         <f>_xll.qlSwapIndex(,"euribor","1Y",2,"eur","target","6M","modified following","actual/360",G8,G7)</f>
-        <v>obj_0000b#0000</v>
+        <v>obj_000c2#0000</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G10" t="str">
         <f>_xll.qlConstantSwaptionVolatility(,2,"target","modified following",5,"actual/360")</f>
-        <v>obj_00002#0000</v>
+        <v>obj_000ba#0000</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G11" t="str">
         <f>_xll.qlCmsCouponPricer(,G10,"conundrumbyblack","standard",5)</f>
-        <v>obj_00003#0000</v>
+        <v>obj_000bc#0000</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G12" t="str">
         <f>_xll.qlIborIndex(,"euribor","1Y",2,"eur","target","modified following",TRUE,"actual/360",G14)</f>
-        <v>obj_00001#0000</v>
+        <v>obj_000b8#0000</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G13" t="str">
         <f>_xll.qlDiscountingSwapEngine(,G14)</f>
-        <v>obj_00005#0000</v>
+        <v>obj_000bd#0000</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G14" t="str">
         <f>_xll.qlFlatForward(,2,"nullcalendar",5)</f>
-        <v>obj_00000#0000</v>
+        <v>obj_000b7#0000</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G15" t="str">
         <f>_xll.qlSwapIndex(,"euribor","1Y",2,"eur","target","1Y","MF","actual/360",G12,G14)</f>
-        <v>obj_00008#0000</v>
+        <v>obj_000be#0000</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTests/Tests/Swap.xlsx
+++ b/UnitTests/Tests/Swap.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\reposit\QuantLibXL\UnitTests\Tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10845" yWindow="165" windowWidth="17700" windowHeight="12525"/>
+    <workbookView xWindow="10845" yWindow="165" windowWidth="17700" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="UNIT_TEST" localSheetId="0">Sheet1!$A$3:$E$9</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -81,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,12 +143,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -185,7 +193,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,9 +226,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,6 +278,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,7 +470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L15"/>
   <sheetViews>
@@ -437,7 +479,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -489,16 +531,16 @@
         <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
-      <c r="E3" t="str">
-        <f>_xll.qlSwap("sw01",G5:G6,K5:L5)</f>
-        <v>sw01#0000</v>
+      <c r="E3" t="e">
+        <f ca="1">_xll.qlSwap("sw01",G5:G6,K5:L5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="b">
-        <f>_xll.qlInstrumentSetPricingEngine(E3,G13)</f>
-        <v>1</v>
+      <c r="G3" t="e">
+        <f ca="1">_xll.qlInstrumentSetPricingEngine(E3,G13)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -512,9 +554,9 @@
         <f t="shared" ref="D4:D9" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
-      <c r="E4" t="str">
-        <f>_xll.qlMakeCms("sw02","1Y",G9,G8,5,"1Y",G11)</f>
-        <v>sw02#0000</v>
+      <c r="E4" t="e">
+        <f ca="1">_xll.qlMakeCms("sw02","1Y",G9,G8,5,"1Y",G11)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -528,17 +570,17 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E5">
-        <f>_xll.qlSwapLegBPS(E3,0,G3)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" t="str">
-        <f>_xll.qlLeg(,K6:K8,J6:J8)</f>
-        <v>obj_000c0#0000</v>
-      </c>
-      <c r="J5">
-        <f>_xll.qlSettingsEvaluationDate()</f>
-        <v>42644</v>
+      <c r="E5" t="e">
+        <f ca="1">_xll.qlSwapLegBPS(E3,0,G3)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G5" t="e">
+        <f ca="1">_xll.qlLeg(,K6:K8,J6:J8)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J5" t="e">
+        <f ca="1">_xll.qlSettingsEvaluationDate()</f>
+        <v>#NAME?</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
@@ -558,17 +600,17 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E6">
-        <f>_xll.qlSwapLegNPV(E3,0,G3)</f>
-        <v>-4.9591843073892612</v>
-      </c>
-      <c r="G6" t="str">
-        <f>_xll.qlLeg(,L6:L8,J6:J8)</f>
-        <v>obj_000bb#0000</v>
-      </c>
-      <c r="J6">
-        <f>J5+1</f>
-        <v>42645</v>
+      <c r="E6" t="e">
+        <f ca="1">_xll.qlSwapLegNPV(E3,0,G3)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G6" t="e">
+        <f ca="1">_xll.qlLeg(,L6:L8,J6:J8)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J6" t="e">
+        <f ca="1">J5+1</f>
+        <v>#NAME?</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -588,17 +630,17 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E7">
-        <f>_xll.qlSwapStartDate(E3)</f>
-        <v>42645</v>
-      </c>
-      <c r="G7" t="str">
-        <f>_xll.qlFlatForward(,2,"target",5,"actual/360","continuous","annual")</f>
-        <v>obj_000b9#0000</v>
-      </c>
-      <c r="J7">
-        <f t="shared" ref="J7:J8" si="1">J6+1</f>
-        <v>42646</v>
+      <c r="E7" t="e">
+        <f ca="1">_xll.qlSwapStartDate(E3)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G7" t="e">
+        <f ca="1">_xll.qlFlatForward(,2,"target",5,"actual/360","continuous","annual")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J7" t="e">
+        <f t="shared" ref="J7:J8" ca="1" si="1">J6+1</f>
+        <v>#NAME?</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -618,17 +660,17 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E8">
-        <f>_xll.qlSwapMaturityDate(E3)</f>
-        <v>42647</v>
-      </c>
-      <c r="G8" t="str">
-        <f>_xll.qlEuribor(,"6M",G7)</f>
-        <v>obj_000bf#0000</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
-        <v>42647</v>
+      <c r="E8" t="e">
+        <f ca="1">_xll.qlSwapMaturityDate(E3)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G8" t="e">
+        <f ca="1">_xll.qlEuribor(,"6M",G7)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J8" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -648,49 +690,49 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E9" t="str">
-        <f>_xll.qlSwapLegAnalysis(E3,0)</f>
-        <v>Payment Date</v>
-      </c>
-      <c r="G9" t="str">
-        <f>_xll.qlSwapIndex(,"euribor","1Y",2,"eur","target","6M","modified following","actual/360",G8,G7)</f>
-        <v>obj_000c2#0000</v>
+      <c r="E9" t="e">
+        <f ca="1">_xll.qlSwapLegAnalysis(E3,0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G9" t="e">
+        <f ca="1">_xll.qlSwapIndex(,"euribor","1Y",2,"eur","target","6M","modified following","actual/360",G8,G7)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G10" t="str">
-        <f>_xll.qlConstantSwaptionVolatility(,2,"target","modified following",5,"actual/360")</f>
-        <v>obj_000ba#0000</v>
+      <c r="G10" t="e">
+        <f ca="1">_xll.qlConstantSwaptionVolatility(,2,"target","modified following",5,"actual/360")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G11" t="str">
-        <f>_xll.qlCmsCouponPricer(,G10,"conundrumbyblack","standard",5)</f>
-        <v>obj_000bc#0000</v>
+      <c r="G11" t="e">
+        <f ca="1">_xll.qlCmsCouponPricer(,G10,"conundrumbyblack","standard",5)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G12" t="str">
-        <f>_xll.qlIborIndex(,"euribor","1Y",2,"eur","target","modified following",TRUE,"actual/360",G14)</f>
-        <v>obj_000b8#0000</v>
+      <c r="G12" t="e">
+        <f ca="1">_xll.qlIborIndex(,"euribor","1Y",2,"eur","target","modified following",TRUE,"actual/360",G14)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G13" t="str">
-        <f>_xll.qlDiscountingSwapEngine(,G14)</f>
-        <v>obj_000bd#0000</v>
+      <c r="G13" t="e">
+        <f ca="1">_xll.qlDiscountingSwapEngine(,G14)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G14" t="str">
-        <f>_xll.qlFlatForward(,2,"nullcalendar",5)</f>
-        <v>obj_000b7#0000</v>
+      <c r="G14" t="e">
+        <f ca="1">_xll.qlFlatForward(,2,"nullcalendar",5)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G15" t="str">
-        <f>_xll.qlSwapIndex(,"euribor","1Y",2,"eur","target","1Y","MF","actual/360",G12,G14)</f>
-        <v>obj_000be#0000</v>
+      <c r="G15" t="e">
+        <f ca="1">_xll.qlSwapIndex(,"euribor","1Y",2,"eur","target","1Y","MF","actual/360",G12,G14)</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -700,26 +742,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
